--- a/Данные скачивания таблиц/Инвестиции в основной капитал - без субъектов малого предпринимательства.xlsx
+++ b/Данные скачивания таблиц/Инвестиции в основной капитал - без субъектов малого предпринимательства.xlsx
@@ -13,10 +13,194 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
+  <si>
+    <t>Городские округа:</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2014</t>
+  </si>
+  <si>
+    <t>2015</t>
+  </si>
+  <si>
+    <t>2016</t>
+  </si>
+  <si>
+    <t>2017</t>
+  </si>
+  <si>
+    <t>2018</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2021</t>
+  </si>
+  <si>
+    <t>2022</t>
+  </si>
+  <si>
+    <t>Багратионовский</t>
+  </si>
+  <si>
+    <t>Балтийский</t>
+  </si>
+  <si>
+    <t>г. Калининград</t>
+  </si>
+  <si>
+    <t>Гвардейский</t>
+  </si>
+  <si>
+    <t>Гурьевский</t>
+  </si>
+  <si>
+    <t>Гусевский</t>
+  </si>
+  <si>
+    <t>Зеленоградский</t>
+  </si>
+  <si>
+    <t>Краснознаменский</t>
+  </si>
+  <si>
+    <t>Ладушкинский</t>
+  </si>
+  <si>
+    <t>Мамоновский</t>
+  </si>
+  <si>
+    <t>Неманский</t>
+  </si>
+  <si>
+    <t>Нестеровский</t>
+  </si>
+  <si>
+    <t>Озерский</t>
+  </si>
+  <si>
+    <t>Пионерский</t>
+  </si>
+  <si>
+    <t>Полесский</t>
+  </si>
+  <si>
+    <t>Правдинский</t>
+  </si>
+  <si>
+    <t>Светловский</t>
+  </si>
+  <si>
+    <t>Светлогорский</t>
+  </si>
+  <si>
+    <t>Славский</t>
+  </si>
+  <si>
+    <t>Советский</t>
+  </si>
+  <si>
+    <t>Черняховский</t>
+  </si>
+  <si>
+    <t>Янтарный</t>
+  </si>
+  <si>
+    <t>442939</t>
+  </si>
+  <si>
+    <t>665693</t>
+  </si>
+  <si>
+    <t>22516131</t>
+  </si>
+  <si>
+    <t>231657</t>
+  </si>
+  <si>
+    <t>970575</t>
+  </si>
+  <si>
+    <t>548956</t>
+  </si>
+  <si>
+    <t>648370</t>
+  </si>
+  <si>
+    <t>174166</t>
+  </si>
+  <si>
+    <t>179861</t>
+  </si>
+  <si>
+    <t>185318</t>
+  </si>
+  <si>
+    <t>8360032</t>
+  </si>
+  <si>
+    <t>139690</t>
+  </si>
+  <si>
+    <t>1235603</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>39782</t>
+  </si>
+  <si>
+    <t>291605</t>
+  </si>
+  <si>
+    <t>6597201</t>
+  </si>
+  <si>
+    <t>117417</t>
+  </si>
+  <si>
+    <t>190456</t>
+  </si>
+  <si>
+    <t>709892</t>
+  </si>
+  <si>
+    <t>188950</t>
+  </si>
+  <si>
+    <t>38406</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+  <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -32,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -40,12 +224,30 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -340,12 +542,956 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2">
+        <v>68376</v>
+      </c>
+      <c r="C2">
+        <v>257057</v>
+      </c>
+      <c r="D2" t="s">
+        <v>35</v>
+      </c>
+      <c r="E2">
+        <v>897764</v>
+      </c>
+      <c r="F2">
+        <v>924633</v>
+      </c>
+      <c r="G2">
+        <v>1641986</v>
+      </c>
+      <c r="H2">
+        <v>780008</v>
+      </c>
+      <c r="I2">
+        <v>2013441</v>
+      </c>
+      <c r="J2">
+        <v>2089748</v>
+      </c>
+      <c r="K2">
+        <v>2294483</v>
+      </c>
+      <c r="L2">
+        <v>1915839</v>
+      </c>
+      <c r="M2">
+        <v>1915839</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>871969</v>
+      </c>
+      <c r="C3">
+        <v>597928</v>
+      </c>
+      <c r="D3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3">
+        <v>404090</v>
+      </c>
+      <c r="F3">
+        <v>829597</v>
+      </c>
+      <c r="G3">
+        <v>85871</v>
+      </c>
+      <c r="H3">
+        <v>226166</v>
+      </c>
+      <c r="I3">
+        <v>203009</v>
+      </c>
+      <c r="J3">
+        <v>284474</v>
+      </c>
+      <c r="K3">
+        <v>189116</v>
+      </c>
+      <c r="L3">
+        <v>319925</v>
+      </c>
+      <c r="M3">
+        <v>319925</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>32265940</v>
+      </c>
+      <c r="C4">
+        <v>22550120</v>
+      </c>
+      <c r="D4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4">
+        <v>33901804</v>
+      </c>
+      <c r="F4">
+        <v>37722392</v>
+      </c>
+      <c r="G4">
+        <v>46900518</v>
+      </c>
+      <c r="H4">
+        <v>63930639</v>
+      </c>
+      <c r="I4">
+        <v>93562108</v>
+      </c>
+      <c r="J4">
+        <v>48947362</v>
+      </c>
+      <c r="K4">
+        <v>41367395</v>
+      </c>
+      <c r="L4">
+        <v>40989243</v>
+      </c>
+      <c r="M4">
+        <v>40989243</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>26118</v>
+      </c>
+      <c r="C5">
+        <v>358502</v>
+      </c>
+      <c r="D5" t="s">
+        <v>38</v>
+      </c>
+      <c r="E5">
+        <v>85107</v>
+      </c>
+      <c r="F5">
+        <v>696121</v>
+      </c>
+      <c r="G5">
+        <v>474516</v>
+      </c>
+      <c r="H5">
+        <v>136886</v>
+      </c>
+      <c r="I5">
+        <v>231713</v>
+      </c>
+      <c r="J5">
+        <v>182795</v>
+      </c>
+      <c r="K5">
+        <v>354194</v>
+      </c>
+      <c r="L5">
+        <v>280369</v>
+      </c>
+      <c r="M5">
+        <v>280369</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6">
+        <v>2275890</v>
+      </c>
+      <c r="C6">
+        <v>3898932</v>
+      </c>
+      <c r="D6" t="s">
+        <v>39</v>
+      </c>
+      <c r="E6">
+        <v>1865958</v>
+      </c>
+      <c r="F6">
+        <v>1435831</v>
+      </c>
+      <c r="G6">
+        <v>6101243</v>
+      </c>
+      <c r="H6">
+        <v>13623114</v>
+      </c>
+      <c r="I6">
+        <v>23293142</v>
+      </c>
+      <c r="J6">
+        <v>5396338</v>
+      </c>
+      <c r="K6">
+        <v>3330841</v>
+      </c>
+      <c r="L6">
+        <v>4149543</v>
+      </c>
+      <c r="M6">
+        <v>4149543</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7">
+        <v>292846</v>
+      </c>
+      <c r="C7">
+        <v>475183</v>
+      </c>
+      <c r="D7" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7">
+        <v>633025</v>
+      </c>
+      <c r="F7">
+        <v>570000</v>
+      </c>
+      <c r="G7">
+        <v>3698524</v>
+      </c>
+      <c r="H7">
+        <v>8255209</v>
+      </c>
+      <c r="I7">
+        <v>1606641</v>
+      </c>
+      <c r="J7">
+        <v>395288</v>
+      </c>
+      <c r="K7">
+        <v>430891</v>
+      </c>
+      <c r="L7">
+        <v>935597</v>
+      </c>
+      <c r="M7">
+        <v>935597</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8">
+        <v>144753</v>
+      </c>
+      <c r="C8">
+        <v>611455</v>
+      </c>
+      <c r="D8" t="s">
+        <v>41</v>
+      </c>
+      <c r="E8">
+        <v>988083</v>
+      </c>
+      <c r="F8">
+        <v>301683</v>
+      </c>
+      <c r="G8">
+        <v>268282</v>
+      </c>
+      <c r="H8">
+        <v>217743</v>
+      </c>
+      <c r="I8">
+        <v>565849</v>
+      </c>
+      <c r="J8">
+        <v>1195275</v>
+      </c>
+      <c r="K8">
+        <v>690934</v>
+      </c>
+      <c r="L8">
+        <v>777469</v>
+      </c>
+      <c r="M8">
+        <v>777469</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9">
+        <v>40372</v>
+      </c>
+      <c r="C9">
+        <v>51861</v>
+      </c>
+      <c r="D9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E9">
+        <v>47731</v>
+      </c>
+      <c r="F9">
+        <v>184425</v>
+      </c>
+      <c r="G9">
+        <v>837722</v>
+      </c>
+      <c r="H9">
+        <v>24368</v>
+      </c>
+      <c r="I9">
+        <v>155653</v>
+      </c>
+      <c r="J9">
+        <v>67335</v>
+      </c>
+      <c r="K9">
+        <v>26578</v>
+      </c>
+      <c r="L9">
+        <v>216766</v>
+      </c>
+      <c r="M9">
+        <v>216766</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10">
+        <v>11639</v>
+      </c>
+      <c r="C10">
+        <v>54086</v>
+      </c>
+      <c r="D10" t="s">
+        <v>43</v>
+      </c>
+      <c r="E10">
+        <v>20269</v>
+      </c>
+      <c r="F10">
+        <v>54633</v>
+      </c>
+      <c r="G10">
+        <v>9652</v>
+      </c>
+      <c r="H10">
+        <v>29980</v>
+      </c>
+      <c r="I10">
+        <v>3783</v>
+      </c>
+      <c r="J10">
+        <v>9810</v>
+      </c>
+      <c r="K10">
+        <v>28410</v>
+      </c>
+      <c r="L10">
+        <v>31657</v>
+      </c>
+      <c r="M10">
+        <v>31657</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>19557</v>
+      </c>
+      <c r="C11">
+        <v>87938</v>
+      </c>
+      <c r="D11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11">
+        <v>221462</v>
+      </c>
+      <c r="F11">
+        <v>214443</v>
+      </c>
+      <c r="G11">
+        <v>67426</v>
+      </c>
+      <c r="H11">
+        <v>22706</v>
+      </c>
+      <c r="I11">
+        <v>89909</v>
+      </c>
+      <c r="J11">
+        <v>59757</v>
+      </c>
+      <c r="K11">
+        <v>70396</v>
+      </c>
+      <c r="L11">
+        <v>22907</v>
+      </c>
+      <c r="M11">
+        <v>22907</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12">
+        <v>4680283</v>
+      </c>
+      <c r="C12">
+        <v>7630966</v>
+      </c>
+      <c r="D12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12">
+        <v>2023163</v>
+      </c>
+      <c r="F12">
+        <v>1604535</v>
+      </c>
+      <c r="G12">
+        <v>1496599</v>
+      </c>
+      <c r="H12">
+        <v>733989</v>
+      </c>
+      <c r="I12">
+        <v>713501</v>
+      </c>
+      <c r="J12">
+        <v>317401</v>
+      </c>
+      <c r="K12">
+        <v>1748325</v>
+      </c>
+      <c r="L12">
+        <v>117976</v>
+      </c>
+      <c r="M12">
+        <v>117976</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13">
+        <v>41719</v>
+      </c>
+      <c r="C13">
+        <v>371006</v>
+      </c>
+      <c r="D13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E13">
+        <v>108334</v>
+      </c>
+      <c r="F13">
+        <v>188692</v>
+      </c>
+      <c r="G13">
+        <v>120936</v>
+      </c>
+      <c r="H13">
+        <v>99389</v>
+      </c>
+      <c r="I13">
+        <v>481522</v>
+      </c>
+      <c r="J13">
+        <v>623026</v>
+      </c>
+      <c r="K13">
+        <v>601602</v>
+      </c>
+      <c r="L13">
+        <v>1072881</v>
+      </c>
+      <c r="M13">
+        <v>1072881</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>57342</v>
+      </c>
+      <c r="C14">
+        <v>429284</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14">
+        <v>1429412</v>
+      </c>
+      <c r="F14">
+        <v>840716</v>
+      </c>
+      <c r="G14">
+        <v>935987</v>
+      </c>
+      <c r="H14">
+        <v>1261949</v>
+      </c>
+      <c r="I14">
+        <v>1250687</v>
+      </c>
+      <c r="J14">
+        <v>1494993</v>
+      </c>
+      <c r="K14">
+        <v>1471724</v>
+      </c>
+      <c r="L14">
+        <v>1913389</v>
+      </c>
+      <c r="M14">
+        <v>1913389</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>85623</v>
+      </c>
+      <c r="C15">
+        <v>86651</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>389563</v>
+      </c>
+      <c r="F15">
+        <v>138930</v>
+      </c>
+      <c r="G15">
+        <v>162511</v>
+      </c>
+      <c r="H15">
+        <v>463903</v>
+      </c>
+      <c r="I15">
+        <v>457787</v>
+      </c>
+      <c r="J15">
+        <v>44075</v>
+      </c>
+      <c r="K15">
+        <v>1289573</v>
+      </c>
+      <c r="L15">
+        <v>334720</v>
+      </c>
+      <c r="M15">
+        <v>334720</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16">
+        <v>52128</v>
+      </c>
+      <c r="C16">
+        <v>47445</v>
+      </c>
+      <c r="D16" t="s">
+        <v>49</v>
+      </c>
+      <c r="E16">
+        <v>327584</v>
+      </c>
+      <c r="F16">
+        <v>824403</v>
+      </c>
+      <c r="G16">
+        <v>146380</v>
+      </c>
+      <c r="H16">
+        <v>123163</v>
+      </c>
+      <c r="I16">
+        <v>360548</v>
+      </c>
+      <c r="J16">
+        <v>545100</v>
+      </c>
+      <c r="K16">
+        <v>517591</v>
+      </c>
+      <c r="L16">
+        <v>321579</v>
+      </c>
+      <c r="M16">
+        <v>321579</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17">
+        <v>934513</v>
+      </c>
+      <c r="C17">
+        <v>599817</v>
+      </c>
+      <c r="D17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17">
+        <v>292121</v>
+      </c>
+      <c r="F17">
+        <v>608260</v>
+      </c>
+      <c r="G17">
+        <v>456001</v>
+      </c>
+      <c r="H17">
+        <v>1430810</v>
+      </c>
+      <c r="I17">
+        <v>3439354</v>
+      </c>
+      <c r="J17">
+        <v>1591440</v>
+      </c>
+      <c r="K17">
+        <v>1701097</v>
+      </c>
+      <c r="L17">
+        <v>1702146</v>
+      </c>
+      <c r="M17">
+        <v>1702146</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="B18">
+        <v>3294977</v>
+      </c>
+      <c r="C18">
+        <v>9640256</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>1636939</v>
+      </c>
+      <c r="F18">
+        <v>1878278</v>
+      </c>
+      <c r="G18">
+        <v>4186590</v>
+      </c>
+      <c r="H18">
+        <v>8431718</v>
+      </c>
+      <c r="I18">
+        <v>6775484</v>
+      </c>
+      <c r="J18">
+        <v>11047431</v>
+      </c>
+      <c r="K18">
+        <v>16292831</v>
+      </c>
+      <c r="L18">
+        <v>5516846</v>
+      </c>
+      <c r="M18">
+        <v>5516846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
+      <c r="A19" t="s">
+        <v>30</v>
+      </c>
+      <c r="B19">
+        <v>43520</v>
+      </c>
+      <c r="C19">
+        <v>172487</v>
+      </c>
+      <c r="D19" t="s">
+        <v>52</v>
+      </c>
+      <c r="E19">
+        <v>260485</v>
+      </c>
+      <c r="F19">
+        <v>755154</v>
+      </c>
+      <c r="G19">
+        <v>971691</v>
+      </c>
+      <c r="H19">
+        <v>2746960</v>
+      </c>
+      <c r="I19">
+        <v>2198471</v>
+      </c>
+      <c r="J19">
+        <v>1433187</v>
+      </c>
+      <c r="K19">
+        <v>2258759</v>
+      </c>
+      <c r="L19">
+        <v>5629609</v>
+      </c>
+      <c r="M19">
+        <v>5629609</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
+      <c r="A20" t="s">
+        <v>31</v>
+      </c>
+      <c r="B20">
+        <v>53011</v>
+      </c>
+      <c r="C20">
+        <v>100328</v>
+      </c>
+      <c r="D20" t="s">
+        <v>53</v>
+      </c>
+      <c r="E20">
+        <v>478580</v>
+      </c>
+      <c r="F20">
+        <v>101379</v>
+      </c>
+      <c r="G20">
+        <v>55394</v>
+      </c>
+      <c r="H20">
+        <v>41466</v>
+      </c>
+      <c r="I20">
+        <v>132531</v>
+      </c>
+      <c r="J20">
+        <v>241800</v>
+      </c>
+      <c r="K20">
+        <v>231134</v>
+      </c>
+      <c r="L20">
+        <v>188386</v>
+      </c>
+      <c r="M20">
+        <v>188386</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
+      <c r="A21" t="s">
+        <v>32</v>
+      </c>
+      <c r="B21">
+        <v>770685</v>
+      </c>
+      <c r="C21">
+        <v>549571</v>
+      </c>
+      <c r="D21" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21">
+        <v>1326946</v>
+      </c>
+      <c r="F21">
+        <v>419741</v>
+      </c>
+      <c r="G21">
+        <v>3339690</v>
+      </c>
+      <c r="H21">
+        <v>9227323</v>
+      </c>
+      <c r="I21">
+        <v>1619709</v>
+      </c>
+      <c r="J21">
+        <v>608326</v>
+      </c>
+      <c r="K21">
+        <v>981541</v>
+      </c>
+      <c r="L21">
+        <v>1191136</v>
+      </c>
+      <c r="M21">
+        <v>1191136</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
+      <c r="A22" t="s">
+        <v>33</v>
+      </c>
+      <c r="B22">
+        <v>368776</v>
+      </c>
+      <c r="C22">
+        <v>635899</v>
+      </c>
+      <c r="D22" t="s">
+        <v>55</v>
+      </c>
+      <c r="E22">
+        <v>201465</v>
+      </c>
+      <c r="F22">
+        <v>1183931</v>
+      </c>
+      <c r="G22">
+        <v>160192</v>
+      </c>
+      <c r="H22">
+        <v>114246</v>
+      </c>
+      <c r="I22">
+        <v>220976</v>
+      </c>
+      <c r="J22">
+        <v>378499</v>
+      </c>
+      <c r="K22">
+        <v>658348</v>
+      </c>
+      <c r="L22">
+        <v>2534376</v>
+      </c>
+      <c r="M22">
+        <v>2534376</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
+      <c r="A23" t="s">
+        <v>34</v>
+      </c>
+      <c r="B23">
+        <v>49300</v>
+      </c>
+      <c r="C23">
+        <v>13594</v>
+      </c>
+      <c r="D23" t="s">
+        <v>56</v>
+      </c>
+      <c r="E23">
+        <v>31217</v>
+      </c>
+      <c r="F23">
+        <v>183409</v>
+      </c>
+      <c r="G23">
+        <v>37266</v>
+      </c>
+      <c r="H23">
+        <v>154068</v>
+      </c>
+      <c r="I23">
+        <v>73963</v>
+      </c>
+      <c r="J23">
+        <v>297094</v>
+      </c>
+      <c r="K23">
+        <v>202614</v>
+      </c>
+      <c r="L23">
+        <v>670226</v>
+      </c>
+      <c r="M23">
+        <v>670226</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Данные скачивания таблиц/Инвестиции в основной капитал - без субъектов малого предпринимательства.xlsx
+++ b/Данные скачивания таблиц/Инвестиции в основной капитал - без субъектов малого предпринимательства.xlsx
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="57">
   <si>
-    <t>Городские округа:</t>
+    <t>МО:</t>
   </si>
   <si>
     <t>2011</t>
